--- a/Resources/Акции.xlsx
+++ b/Resources/Акции.xlsx
@@ -1,38 +1,370 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Панель Инстрементов\Python progects\Stocks-bot\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DDED1E-168D-4225-9BDB-73D30908D557}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
+  <si>
+    <t>Цена закрытия</t>
+  </si>
+  <si>
+    <t>Сбербанк-П</t>
+  </si>
+  <si>
+    <t>SBER_P</t>
+  </si>
+  <si>
+    <t>russia</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Транснефть-П</t>
+  </si>
+  <si>
+    <t>TRNF_P</t>
+  </si>
+  <si>
+    <t>148,750.0</t>
+  </si>
+  <si>
+    <t>Норникель</t>
+  </si>
+  <si>
+    <t>GMKN</t>
+  </si>
+  <si>
+    <t>23,860.0</t>
+  </si>
+  <si>
+    <t>ПИК</t>
+  </si>
+  <si>
+    <t>PIKK</t>
+  </si>
+  <si>
+    <t>919.30</t>
+  </si>
+  <si>
+    <t>Газпром</t>
+  </si>
+  <si>
+    <t>GAZP</t>
+  </si>
+  <si>
+    <t>228.40</t>
+  </si>
+  <si>
+    <t>ЛСР</t>
+  </si>
+  <si>
+    <t>LSRG</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>Сургутнефтегаз-П</t>
+  </si>
+  <si>
+    <t>SNGS_P</t>
+  </si>
+  <si>
+    <t>42.985</t>
+  </si>
+  <si>
+    <t>ФСК ЕЭС</t>
+  </si>
+  <si>
+    <t>FEES</t>
+  </si>
+  <si>
+    <t>0.2148</t>
+  </si>
+  <si>
+    <t>МТС</t>
+  </si>
+  <si>
+    <t>MTSS</t>
+  </si>
+  <si>
+    <t>317.40</t>
+  </si>
+  <si>
+    <t>Ростелеком</t>
+  </si>
+  <si>
+    <t>RTKM</t>
+  </si>
+  <si>
+    <t>107.63</t>
+  </si>
+  <si>
+    <t>Северсталь</t>
+  </si>
+  <si>
+    <t>CHMF</t>
+  </si>
+  <si>
+    <t>1,528.20</t>
+  </si>
+  <si>
+    <t>Газпромнефть</t>
+  </si>
+  <si>
+    <t>SIBN</t>
+  </si>
+  <si>
+    <t>371.65</t>
+  </si>
+  <si>
+    <t>Русагро</t>
+  </si>
+  <si>
+    <t>AGRO</t>
+  </si>
+  <si>
+    <t>Черкизово</t>
+  </si>
+  <si>
+    <t>GCHE</t>
+  </si>
+  <si>
+    <t>2,342.5</t>
+  </si>
+  <si>
+    <t>Мосбиржа</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>169.41</t>
+  </si>
+  <si>
+    <t>Роснефть</t>
+  </si>
+  <si>
+    <t>ROSN</t>
+  </si>
+  <si>
+    <t>566.65</t>
+  </si>
+  <si>
+    <t>Лукойл</t>
+  </si>
+  <si>
+    <t>LKOH</t>
+  </si>
+  <si>
+    <t>6,108.5</t>
+  </si>
+  <si>
+    <t>X5 Retail Group</t>
+  </si>
+  <si>
+    <t>FIVE</t>
+  </si>
+  <si>
+    <t>Магнит</t>
+  </si>
+  <si>
+    <t>MGNT</t>
+  </si>
+  <si>
+    <t>5,301.5</t>
+  </si>
+  <si>
+    <t>Фосагро</t>
+  </si>
+  <si>
+    <t>PHOR</t>
+  </si>
+  <si>
+    <t>4,240.0</t>
+  </si>
+  <si>
+    <t>Полиметалл</t>
+  </si>
+  <si>
+    <t>POLY</t>
+  </si>
+  <si>
+    <t>1,507.70</t>
+  </si>
+  <si>
+    <t>Полюс Золото</t>
+  </si>
+  <si>
+    <t>PLZL</t>
+  </si>
+  <si>
+    <t>13,944.0</t>
+  </si>
+  <si>
+    <t>НЛМК</t>
+  </si>
+  <si>
+    <t>NLMK</t>
+  </si>
+  <si>
+    <t>239.98</t>
+  </si>
+  <si>
+    <t>Юнипро</t>
+  </si>
+  <si>
+    <t>UPRO</t>
+  </si>
+  <si>
+    <t>2.921</t>
+  </si>
+  <si>
+    <t>FinEX Америка</t>
+  </si>
+  <si>
+    <t>FXUS</t>
+  </si>
+  <si>
+    <t>FinEX Китай</t>
+  </si>
+  <si>
+    <t>FXCN</t>
+  </si>
+  <si>
+    <t>FinEX Германия</t>
+  </si>
+  <si>
+    <t>FXDE</t>
+  </si>
+  <si>
+    <t>FinEX Америка ИТ</t>
+  </si>
+  <si>
+    <t>FXIT</t>
+  </si>
+  <si>
+    <t>НКНХ 1P-01</t>
+  </si>
+  <si>
+    <t>RU000A0ZZZ17</t>
+  </si>
+  <si>
+    <t>СэтлГрупп Б1Р2</t>
+  </si>
+  <si>
+    <t>RU000A100MG6</t>
+  </si>
+  <si>
+    <t>RU000A0JT940</t>
+  </si>
+  <si>
+    <t>КТЖФинанс1</t>
+  </si>
+  <si>
+    <t>RU000A0JXS34</t>
+  </si>
+  <si>
+    <t>ЧТПЗ 1Р3</t>
+  </si>
+  <si>
+    <t>RU000A0JXME4</t>
+  </si>
+  <si>
+    <t>РЖД 1P-05R</t>
+  </si>
+  <si>
+    <t>RU000A0ZYU05</t>
+  </si>
+  <si>
+    <t>Ритейл БФ01</t>
+  </si>
+  <si>
+    <t>RU000A100JH0</t>
+  </si>
+  <si>
+    <t>ДелПорт1Р1</t>
+  </si>
+  <si>
+    <t>RU000A0JXVG0</t>
+  </si>
+  <si>
+    <t>ДФФ 1Р-01</t>
+  </si>
+  <si>
+    <t>RU000A0ZYM21</t>
+  </si>
+  <si>
+    <t>Транснефть</t>
+  </si>
+  <si>
+    <t>RU000A0ZYUS1</t>
+  </si>
+  <si>
+    <t>ПИК БО-П выпуск 3</t>
+  </si>
+  <si>
+    <t>RU000A0JXY44</t>
+  </si>
+  <si>
+    <t>Система Б1Р1</t>
+  </si>
+  <si>
+    <t>RU000A0JVUK8</t>
+  </si>
+  <si>
+    <t>GAZPR-34</t>
+  </si>
+  <si>
+    <t>XS0191754729</t>
+  </si>
+  <si>
+    <t>RUS-28</t>
+  </si>
+  <si>
+    <t>XS0088543193</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,25 +464,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -220,6 +553,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1327,1070 +1668,737 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="14.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="19.36328125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9.81640625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" style="1" min="3" max="4"/>
-    <col width="10.453125" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.453125" customWidth="1" style="1" min="6" max="256"/>
+    <col min="1" max="1" width="19.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" customHeight="1" s="1">
-      <c r="A1" s="10" t="n">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10">
         <v>44288</v>
       </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Цена закрытия</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="13.75" customHeight="1" s="1">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="13.75" customHeight="1" s="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Сбербанк-П</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>SBER_P</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="13.75" customHeight="1" s="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Транснефть-П</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>TRNF_P</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>148,750.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="13.75" customHeight="1" s="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Норникель</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>GMKN</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>23,860.0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="13.75" customHeight="1" s="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>ПИК</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>PIKK</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>919.30</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="13.75" customHeight="1" s="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Газпром</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>GAZP</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>228.40</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="13.75" customHeight="1" s="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>ЛСР</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>LSRG</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>850.00</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="13.75" customHeight="1" s="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Сургутнефтегаз-П</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>SNGS_P</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>42.985</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="13.75" customHeight="1" s="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>ФСК ЕЭС</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>FEES</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>0.2148</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-    </row>
-    <row r="11" ht="13.75" customHeight="1" s="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>МТС</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>MTSS</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>317.40</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-    </row>
-    <row r="12" ht="13.75" customHeight="1" s="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Ростелеком</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>RTKM</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>107.63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-    </row>
-    <row r="13" ht="13.75" customHeight="1" s="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Северсталь</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>CHMF</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>1,528.20</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="13.75" customHeight="1" s="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Газпромнефть</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>SIBN</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>371.65</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="13.75" customHeight="1" s="1">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>Русагро</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>AGRO</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="13.75" customHeight="1" s="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Русагро</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>AGRO</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="13.75" customHeight="1" s="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Черкизово</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>GCHE</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>2,342.5</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="13.75" customHeight="1" s="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>Мосбиржа</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>MOEX</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>169.41</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="13.75" customHeight="1" s="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Роснефть</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>ROSN</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>566.65</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="13.75" customHeight="1" s="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Лукойл</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>LKOH</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>6,108.5</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-    </row>
-    <row r="21" ht="13.75" customHeight="1" s="1">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>X5 Retail Group</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-    </row>
-    <row r="22" ht="13.75" customHeight="1" s="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>Магнит</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>MGNT</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>5,301.5</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="13.75" customHeight="1" s="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>Фосагро</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>PHOR</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>4,240.0</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="13.75" customHeight="1" s="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Полиметалл</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>POLY</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
-        <is>
-          <t>1,507.70</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-    </row>
-    <row r="25" ht="13.75" customHeight="1" s="1">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>Полюс Золото</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>PLZL</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="inlineStr">
-        <is>
-          <t>13,944.0</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-    </row>
-    <row r="26" ht="13.75" customHeight="1" s="1">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>НЛМК</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>NLMK</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>239.98</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-    </row>
-    <row r="27" ht="13.75" customHeight="1" s="1">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Юнипро</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>UPRO</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>2.921</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28" ht="13.75" customHeight="1" s="1">
-      <c r="A28" s="7" t="n"/>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29" ht="13.75" customHeight="1" s="1">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>FinEX Америка</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>FXUS</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-    </row>
-    <row r="30" ht="13.75" customHeight="1" s="1">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>FinEX Китай</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>FXCN</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D30" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-    </row>
-    <row r="31" ht="13.75" customHeight="1" s="1">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>FinEX Германия</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>FXDE</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D31" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-    </row>
-    <row r="32" ht="13.75" customHeight="1" s="1">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>FinEX Америка ИТ</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>FXIT</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D32" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-    </row>
-    <row r="33" ht="13.75" customHeight="1" s="1">
-      <c r="A33" s="5" t="n"/>
-      <c r="B33" s="8" t="n"/>
-      <c r="C33" s="8" t="n"/>
-      <c r="D33" s="9" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-    </row>
-    <row r="34" ht="13.75" customHeight="1" s="1">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>НКНХ 1P-01</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>RU000A0ZZZ17</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-    </row>
-    <row r="35" ht="13.75" customHeight="1" s="1">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>СэтлГрупп Б1Р2</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>RU000A100MG6</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-    </row>
-    <row r="36" ht="14.5" customHeight="1" s="1">
-      <c r="A36" s="5" t="inlineStr">
-        <is>
-          <t>Роснефть</t>
-        </is>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>RU000A0JT940</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-    </row>
-    <row r="37" ht="14.5" customHeight="1" s="1">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>КТЖФинанс1</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>RU000A0JXS34</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-    </row>
-    <row r="38" ht="14.5" customHeight="1" s="1">
-      <c r="A38" s="5" t="inlineStr">
-        <is>
-          <t>ЧТПЗ 1Р3</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>RU000A0JXME4</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="n"/>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
-    </row>
-    <row r="39" ht="14.5" customHeight="1" s="1">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>РЖД 1P-05R</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>RU000A0ZYU05</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-    </row>
-    <row r="40" ht="14.5" customHeight="1" s="1">
-      <c r="A40" s="5" t="inlineStr">
-        <is>
-          <t>Ритейл БФ01</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>RU000A100JH0</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-    </row>
-    <row r="41" ht="14.5" customHeight="1" s="1">
-      <c r="A41" s="5" t="inlineStr">
-        <is>
-          <t>ДелПорт1Р1</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>RU000A0JXVG0</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-    </row>
-    <row r="42" ht="14.5" customHeight="1" s="1">
-      <c r="A42" s="5" t="inlineStr">
-        <is>
-          <t>ДФФ 1Р-01</t>
-        </is>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <t>RU000A0ZYM21</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D42" s="9" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-    </row>
-    <row r="43" ht="14.5" customHeight="1" s="1">
-      <c r="A43" s="5" t="inlineStr">
-        <is>
-          <t>Транснефть</t>
-        </is>
-      </c>
-      <c r="B43" s="5" t="inlineStr">
-        <is>
-          <t>RU000A0ZYUS1</t>
-        </is>
-      </c>
-      <c r="C43" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D43" s="9" t="n"/>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-    </row>
-    <row r="44" ht="14.5" customHeight="1" s="1">
-      <c r="A44" s="5" t="inlineStr">
-        <is>
-          <t>ПИК БО-П выпуск 3</t>
-        </is>
-      </c>
-      <c r="B44" s="5" t="inlineStr">
-        <is>
-          <t>RU000A0JXY44</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D44" s="9" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-    </row>
-    <row r="45" ht="14.5" customHeight="1" s="1">
-      <c r="A45" s="5" t="inlineStr">
-        <is>
-          <t>Система Б1Р1</t>
-        </is>
-      </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>RU000A0JVUK8</t>
-        </is>
-      </c>
-      <c r="C45" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-    </row>
-    <row r="46" ht="14.5" customHeight="1" s="1">
-      <c r="A46" s="5" t="inlineStr">
-        <is>
-          <t>GAZPR-34</t>
-        </is>
-      </c>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <t>XS0191754729</t>
-        </is>
-      </c>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D46" s="9" t="n"/>
-      <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="n"/>
-    </row>
-    <row r="47" ht="14.5" customHeight="1" s="1">
-      <c r="A47" s="5" t="inlineStr">
-        <is>
-          <t>RUS-28</t>
-        </is>
-      </c>
-      <c r="B47" s="5" t="inlineStr">
-        <is>
-          <t>XS0088543193</t>
-        </is>
-      </c>
-      <c r="C47" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
-    </row>
-    <row r="48" ht="14.5" customHeight="1" s="1">
-      <c r="A48" s="5" t="inlineStr">
-        <is>
-          <t>RUS-28</t>
-        </is>
-      </c>
-      <c r="B48" s="5" t="inlineStr">
-        <is>
-          <t>XS0088543193</t>
-        </is>
-      </c>
-      <c r="C48" s="5" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="n"/>
-      <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Resources/Акции.xlsx
+++ b/Resources/Акции.xlsx
@@ -1,320 +1,298 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Панель Инстрементов\Python progects\Stocks-bot\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD80549-0522-438F-8C6A-3E3927B5F04B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
-    <t xml:space="preserve">Цена закрытия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сбербанк-П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBER_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Транснефть-П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRNF_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Норникель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMKN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIKK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Газпром</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAZP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛСР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSRG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сургутнефтегаз-П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNGS_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФСК ЕЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МТС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ростелеком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTKM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северсталь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHMF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Газпромнефть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIBN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Русагро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Черкизово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мосбиржа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роснефть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лукойл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LKOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X5 Retail Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Магнит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фосагро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полиметалл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полюс Золото</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLZL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЛМК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLMK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юнипро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FinEX Америка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FXUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FinEX Китай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FXCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FinEX Германия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FXDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FinEX Америка ИТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FXIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НКНХ 1P-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A0ZZZ17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СэтлГрупп Б1Р2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A100MG6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A0JT940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТЖФинанс1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A0JXS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧТПЗ 1Р3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A0JXME4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЖД 1P-05R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A0ZYU05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ритейл БФ01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A100JH0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДелПорт1Р1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A0JXVG0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДФФ 1Р-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A0ZYM21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Транснефть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A0ZYUS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИК БО-П выпуск 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A0JXY44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Система Б1Р1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU000A0JVUK8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAZPR-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XS0191754729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUS-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XS0088543193</t>
+    <t>Цена закрытия</t>
+  </si>
+  <si>
+    <t>Сбербанк-П</t>
+  </si>
+  <si>
+    <t>SBER_P</t>
+  </si>
+  <si>
+    <t>russia</t>
+  </si>
+  <si>
+    <t>Транснефть-П</t>
+  </si>
+  <si>
+    <t>TRNF_P</t>
+  </si>
+  <si>
+    <t>Норникель</t>
+  </si>
+  <si>
+    <t>GMKN</t>
+  </si>
+  <si>
+    <t>ПИК</t>
+  </si>
+  <si>
+    <t>PIKK</t>
+  </si>
+  <si>
+    <t>Газпром</t>
+  </si>
+  <si>
+    <t>GAZP</t>
+  </si>
+  <si>
+    <t>ЛСР</t>
+  </si>
+  <si>
+    <t>LSRG</t>
+  </si>
+  <si>
+    <t>Сургутнефтегаз-П</t>
+  </si>
+  <si>
+    <t>SNGS_P</t>
+  </si>
+  <si>
+    <t>ФСК ЕЭС</t>
+  </si>
+  <si>
+    <t>FEES</t>
+  </si>
+  <si>
+    <t>МТС</t>
+  </si>
+  <si>
+    <t>MTSS</t>
+  </si>
+  <si>
+    <t>Ростелеком</t>
+  </si>
+  <si>
+    <t>RTKM</t>
+  </si>
+  <si>
+    <t>Северсталь</t>
+  </si>
+  <si>
+    <t>CHMF</t>
+  </si>
+  <si>
+    <t>Газпромнефть</t>
+  </si>
+  <si>
+    <t>SIBN</t>
+  </si>
+  <si>
+    <t>Русагро</t>
+  </si>
+  <si>
+    <t>AGRO</t>
+  </si>
+  <si>
+    <t>Черкизово</t>
+  </si>
+  <si>
+    <t>GCHE</t>
+  </si>
+  <si>
+    <t>Мосбиржа</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>Роснефть</t>
+  </si>
+  <si>
+    <t>ROSN</t>
+  </si>
+  <si>
+    <t>Лукойл</t>
+  </si>
+  <si>
+    <t>LKOH</t>
+  </si>
+  <si>
+    <t>X5 Retail Group</t>
+  </si>
+  <si>
+    <t>FIVE</t>
+  </si>
+  <si>
+    <t>Магнит</t>
+  </si>
+  <si>
+    <t>MGNT</t>
+  </si>
+  <si>
+    <t>Фосагро</t>
+  </si>
+  <si>
+    <t>PHOR</t>
+  </si>
+  <si>
+    <t>Полиметалл</t>
+  </si>
+  <si>
+    <t>POLY</t>
+  </si>
+  <si>
+    <t>Полюс Золото</t>
+  </si>
+  <si>
+    <t>PLZL</t>
+  </si>
+  <si>
+    <t>НЛМК</t>
+  </si>
+  <si>
+    <t>NLMK</t>
+  </si>
+  <si>
+    <t>Юнипро</t>
+  </si>
+  <si>
+    <t>UPRO</t>
+  </si>
+  <si>
+    <t>FinEX Америка</t>
+  </si>
+  <si>
+    <t>FXUS</t>
+  </si>
+  <si>
+    <t>FinEX Китай</t>
+  </si>
+  <si>
+    <t>FXCN</t>
+  </si>
+  <si>
+    <t>FinEX Германия</t>
+  </si>
+  <si>
+    <t>FXDE</t>
+  </si>
+  <si>
+    <t>FinEX Америка ИТ</t>
+  </si>
+  <si>
+    <t>FXIT</t>
+  </si>
+  <si>
+    <t>НКНХ 1P-01</t>
+  </si>
+  <si>
+    <t>RU000A0ZZZ17</t>
+  </si>
+  <si>
+    <t>СэтлГрупп Б1Р2</t>
+  </si>
+  <si>
+    <t>RU000A100MG6</t>
+  </si>
+  <si>
+    <t>RU000A0JT940</t>
+  </si>
+  <si>
+    <t>КТЖФинанс1</t>
+  </si>
+  <si>
+    <t>RU000A0JXS34</t>
+  </si>
+  <si>
+    <t>ЧТПЗ 1Р3</t>
+  </si>
+  <si>
+    <t>RU000A0JXME4</t>
+  </si>
+  <si>
+    <t>РЖД 1P-05R</t>
+  </si>
+  <si>
+    <t>RU000A0ZYU05</t>
+  </si>
+  <si>
+    <t>Ритейл БФ01</t>
+  </si>
+  <si>
+    <t>RU000A100JH0</t>
+  </si>
+  <si>
+    <t>ДелПорт1Р1</t>
+  </si>
+  <si>
+    <t>RU000A0JXVG0</t>
+  </si>
+  <si>
+    <t>ДФФ 1Р-01</t>
+  </si>
+  <si>
+    <t>RU000A0ZYM21</t>
+  </si>
+  <si>
+    <t>Транснефть</t>
+  </si>
+  <si>
+    <t>RU000A0ZYUS1</t>
+  </si>
+  <si>
+    <t>ПИК БО-П выпуск 3</t>
+  </si>
+  <si>
+    <t>RU000A0JXY44</t>
+  </si>
+  <si>
+    <t>Система Б1Р1</t>
+  </si>
+  <si>
+    <t>RU000A0JVUK8</t>
+  </si>
+  <si>
+    <t>GAZPR-34</t>
+  </si>
+  <si>
+    <t>XS0191754729</t>
+  </si>
+  <si>
+    <t>RUS-28</t>
+  </si>
+  <si>
+    <t>XS0088543193</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -333,108 +311,362 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.46"/>
+    <col min="1" max="1" width="19.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2">
         <v>44288</v>
       </c>
       <c r="B1" s="3"/>
@@ -445,7 +677,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -453,7 +685,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -463,13 +695,15 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>260.4</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="D3" s="4">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="E3" s="3">
+        <v>13712</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -479,15 +713,15 @@
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>147400</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
+      <c r="E4" s="3">
+        <v>13720</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -497,15 +731,15 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>22238</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>0</v>
+      <c r="E5" s="3">
+        <v>13683</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -515,15 +749,15 @@
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>778.4</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
+      <c r="E6" s="3">
+        <v>13789</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -533,15 +767,15 @@
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>221.62</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>0</v>
+      <c r="E7" s="3">
+        <v>13684</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -551,15 +785,15 @@
       <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>816.4</v>
       </c>
-      <c r="E8" s="3" t="n">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>13688</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -569,15 +803,15 @@
       <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>40.58</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
+      <c r="E9" s="3">
+        <v>13717</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -587,15 +821,15 @@
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>0.2122</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>0</v>
+      <c r="E10" s="3">
+        <v>13682</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -605,15 +839,15 @@
       <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>315.9</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
+      <c r="D11" s="4">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>13691</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -623,15 +857,15 @@
       <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>106.31</v>
       </c>
-      <c r="E12" s="3" t="n">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>21419</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -641,15 +875,15 @@
       <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>1378.6</v>
       </c>
-      <c r="E13" s="3" t="n">
-        <v>0</v>
+      <c r="E13" s="3">
+        <v>13713</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -659,15 +893,15 @@
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>367.5</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>13786</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -677,15 +911,15 @@
       <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <v>8.28</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>0</v>
+      <c r="D15" s="4">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21048</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -695,15 +929,15 @@
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>8.28</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>0</v>
+      <c r="D16" s="4">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E16" s="3">
+        <v>21048</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -713,15 +947,15 @@
       <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="4">
         <v>2475</v>
       </c>
-      <c r="E17" s="3" t="n">
-        <v>0</v>
+      <c r="E17" s="3">
+        <v>21289</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -731,15 +965,15 @@
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="4">
         <v>166.3</v>
       </c>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
+      <c r="E18" s="3">
+        <v>44464</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -749,15 +983,15 @@
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>565.1</v>
       </c>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
+      <c r="E19" s="3">
+        <v>13707</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -767,15 +1001,15 @@
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="4">
         <v>5961</v>
       </c>
-      <c r="E20" s="3" t="n">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>13689</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
@@ -785,15 +1019,15 @@
       <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="4">
         <v>192.2</v>
       </c>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
+      <c r="E21" s="3">
+        <v>31033</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -803,15 +1037,15 @@
       <c r="C22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="4">
         <v>5300.5</v>
       </c>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>13693</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -821,15 +1055,15 @@
       <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="4">
         <v>4066</v>
       </c>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
+      <c r="E23" s="3">
+        <v>21406</v>
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -839,15 +1073,15 @@
       <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="4">
         <v>1529</v>
       </c>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
+      <c r="E24" s="3">
+        <v>44465</v>
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
@@ -857,15 +1091,15 @@
       <c r="C25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="4">
         <v>14147</v>
       </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
+      <c r="E25" s="3">
+        <v>13705</v>
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -875,15 +1109,15 @@
       <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="4">
         <v>212.48</v>
       </c>
-      <c r="E26" s="3" t="n">
-        <v>0</v>
+      <c r="E26" s="3">
+        <v>13695</v>
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -893,25 +1127,23 @@
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4" t="n">
-        <v>2.916</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>0</v>
+      <c r="D27" s="4">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="E27" s="3">
+        <v>21302</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -921,15 +1153,15 @@
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="4">
         <v>5468</v>
       </c>
-      <c r="E29" s="3" t="n">
-        <v>0</v>
+      <c r="E29" s="3">
+        <v>956420</v>
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
@@ -939,15 +1171,15 @@
       <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="4">
         <v>4240</v>
       </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
+      <c r="E30" s="3">
+        <v>956423</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -957,15 +1189,15 @@
       <c r="C31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="4">
         <v>2998</v>
       </c>
-      <c r="E31" s="3" t="n">
-        <v>0</v>
+      <c r="E31" s="3">
+        <v>956424</v>
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -975,25 +1207,23 @@
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="4">
         <v>9980</v>
       </c>
-      <c r="E32" s="3" t="n">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>956422</v>
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
@@ -1003,15 +1233,15 @@
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="3">
         <v>110.05</v>
       </c>
-      <c r="E34" s="3" t="n">
-        <v>0</v>
+      <c r="E34" s="3">
+        <v>1136503</v>
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>60</v>
       </c>
@@ -1022,12 +1252,10 @@
         <v>3</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
@@ -1037,15 +1265,15 @@
       <c r="C36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="3">
         <v>101.52</v>
       </c>
-      <c r="E36" s="3" t="n">
-        <v>0</v>
+      <c r="E36" s="3">
+        <v>1079631</v>
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
@@ -1055,15 +1283,15 @@
       <c r="C37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="3">
         <v>101.97</v>
       </c>
-      <c r="E37" s="3" t="n">
-        <v>0</v>
+      <c r="E37" s="3">
+        <v>1079566</v>
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>65</v>
       </c>
@@ -1073,15 +1301,15 @@
       <c r="C38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="3">
         <v>108.08</v>
       </c>
-      <c r="E38" s="3" t="n">
-        <v>0</v>
+      <c r="E38" s="3">
+        <v>1079395</v>
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>67</v>
       </c>
@@ -1091,15 +1319,15 @@
       <c r="C39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="3">
         <v>100.41</v>
       </c>
-      <c r="E39" s="3" t="n">
-        <v>0</v>
+      <c r="E39" s="3">
+        <v>1079735</v>
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>69</v>
       </c>
@@ -1109,15 +1337,15 @@
       <c r="C40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="3">
         <v>102.13</v>
       </c>
-      <c r="E40" s="3" t="n">
-        <v>0</v>
+      <c r="E40" s="3">
+        <v>1161830</v>
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>71</v>
       </c>
@@ -1127,15 +1355,15 @@
       <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="3">
         <v>100.08</v>
       </c>
-      <c r="E41" s="3" t="n">
-        <v>0</v>
+      <c r="E41" s="3">
+        <v>1079398</v>
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>73</v>
       </c>
@@ -1145,15 +1373,15 @@
       <c r="C42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="3">
         <v>100.8</v>
       </c>
-      <c r="E42" s="3" t="n">
-        <v>0</v>
+      <c r="E42" s="3">
+        <v>1079417</v>
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>75</v>
       </c>
@@ -1163,15 +1391,15 @@
       <c r="C43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="3">
         <v>101.25</v>
       </c>
-      <c r="E43" s="3" t="n">
-        <v>0</v>
+      <c r="E43" s="3">
+        <v>1079824</v>
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
@@ -1181,15 +1409,15 @@
       <c r="C44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="3">
         <v>104.11</v>
       </c>
-      <c r="E44" s="3" t="n">
-        <v>0</v>
+      <c r="E44" s="3">
+        <v>1079509</v>
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>79</v>
       </c>
@@ -1199,15 +1427,15 @@
       <c r="C45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="3">
         <v>102.15</v>
       </c>
-      <c r="E45" s="3" t="n">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>1079298</v>
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
@@ -1217,15 +1445,15 @@
       <c r="C46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" s="3">
         <v>140.91</v>
       </c>
-      <c r="E46" s="3" t="n">
-        <v>0</v>
+      <c r="E46" s="3">
+        <v>1157760</v>
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>83</v>
       </c>
@@ -1235,15 +1463,15 @@
       <c r="C47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="3">
         <v>165.5</v>
       </c>
-      <c r="E47" s="3" t="n">
-        <v>0</v>
+      <c r="E47" s="3">
+        <v>1117807</v>
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>83</v>
       </c>
@@ -1253,20 +1481,18 @@
       <c r="C48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="3">
         <v>165.5</v>
       </c>
-      <c r="E48" s="3" t="n">
-        <v>0</v>
+      <c r="E48" s="3">
+        <v>1117807</v>
       </c>
       <c r="F48" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Обычный"&amp;12 &amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/Resources/Акции.xlsx
+++ b/Resources/Акции.xlsx
@@ -427,11 +427,11 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.82"/>
@@ -440,8 +440,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
+      <c r="A1" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B1" s="0"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -468,12 +470,12 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>203.1</v>
+        <v>266.85</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="n">
         <f aca="false">SUM(D3:D48)</f>
-        <v>222617.8303</v>
+        <v>240634.691</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -487,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>168900</v>
+        <v>146250</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -503,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>14600</v>
+        <v>25432</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -519,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>358</v>
+        <v>948.3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -535,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>164</v>
+        <v>222.87</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -551,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>656</v>
+        <v>848.8</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -567,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>39.88</v>
+        <v>42.54</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -583,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.1663</v>
+        <v>0.212</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -599,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>258.05</v>
+        <v>317.3</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -615,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>73.7</v>
+        <v>107.61</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -631,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>1037</v>
+        <v>1607.8</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -647,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>349.45</v>
+        <v>357</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -663,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>6.89</v>
+        <v>8.25</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -679,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>6.89</v>
+        <v>8.25</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -695,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>1654</v>
+        <v>2320.5</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -711,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>91.2</v>
+        <v>171.68</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -727,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>436.5</v>
+        <v>540.15</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -743,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>5584</v>
+        <v>6020</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -759,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>139.74</v>
+        <v>196.09</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -775,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>3581</v>
+        <v>5180</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -791,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>2389</v>
+        <v>4369</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -807,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>675.8</v>
+        <v>1548.1</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -823,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>4950</v>
+        <v>14488</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -839,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>171.4</v>
+        <v>255.06</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -855,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>2.674</v>
+        <v>2.899</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -869,7 +871,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="n">
-        <v>1864.82</v>
+        <v>3379.39</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -885,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>3297</v>
+        <v>5862</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -901,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>2748</v>
+        <v>4175</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -917,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>2070</v>
+        <v>3177.5</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -933,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>4864</v>
+        <v>10929</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -957,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>102.81</v>
+        <v>109.42</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -989,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>97.9</v>
+        <v>102.44</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1005,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>99.5</v>
+        <v>102.18</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1021,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>102.27</v>
+        <v>106.42</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1037,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>92.6</v>
+        <v>100.1</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1053,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>-1</v>
+        <v>102.65</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1069,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>99.01</v>
+        <v>101.38</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1085,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>97.08</v>
+        <v>100.51</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1101,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>97.31</v>
+        <v>101.01</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1117,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>105.2</v>
+        <v>104.79</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1133,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>100.04</v>
+        <v>102.98</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1149,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>131.1</v>
+        <v>139.66</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1165,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>161.375</v>
+        <v>165</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1181,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>161.375</v>
+        <v>165</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
